--- a/Web/Content/example/CarBindExample.xlsx
+++ b/Web/Content/example/CarBindExample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceCode\DotNet\999\iRentV20API\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C01C9-0C82-4911-AF75-1924BBE7C909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79ED3C-E8C0-4D95-8CAD-C5F1601BB19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EC66C709-2FC7-49CC-900B-4A11317C3F73}"/>
+    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840" xr2:uid="{EC66C709-2FC7-49CC-900B-4A11317C3F73}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>車機編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,12 +39,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>門號(遠傳)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡號(遠傳)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1FB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9582  </t>
+  </si>
+  <si>
+    <t>8400001A8B806401</t>
+  </si>
+  <si>
+    <t>1FA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9583  </t>
+  </si>
+  <si>
+    <t>4C00001B6FDD4101</t>
+  </si>
+  <si>
+    <t>1FAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9587  </t>
+  </si>
+  <si>
+    <t>4200001A8BE6EC01</t>
+  </si>
+  <si>
+    <t>1FB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9592  </t>
+  </si>
+  <si>
+    <t>EB00001A8C289D01</t>
+  </si>
+  <si>
+    <t>1FAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9593  </t>
+  </si>
+  <si>
+    <t>7C00001A8C1EC501</t>
+  </si>
+  <si>
+    <t>1FB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9600  </t>
+  </si>
+  <si>
+    <t>5600001A8C20AF01</t>
+  </si>
+  <si>
+    <t>1FB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9601  </t>
+  </si>
+  <si>
+    <t>F600001A8B964B01</t>
+  </si>
+  <si>
+    <t>1FAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9603  </t>
+  </si>
+  <si>
+    <t>5600001A8C9CAD01</t>
+  </si>
+  <si>
+    <t>1FF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9605  </t>
+  </si>
+  <si>
+    <t>4E00001A8B8A3701</t>
+  </si>
+  <si>
+    <t>1FA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9606  </t>
+  </si>
+  <si>
+    <t>BD00001A8B875301</t>
+  </si>
+  <si>
+    <t>1FAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAF-9607  </t>
+  </si>
+  <si>
+    <t>3E00001A8B9B4401</t>
+  </si>
+  <si>
+    <t>B1B5</t>
+  </si>
+  <si>
+    <t>EWA-0116</t>
+  </si>
+  <si>
+    <t>B14F</t>
+  </si>
+  <si>
+    <t>EWA-0117</t>
+  </si>
+  <si>
+    <t>B17F</t>
+  </si>
+  <si>
+    <t>EWA-0118</t>
+  </si>
+  <si>
+    <t>B1C2</t>
+  </si>
+  <si>
+    <t>EWA-0119</t>
+  </si>
+  <si>
+    <t>B174</t>
+  </si>
+  <si>
+    <t>EWA-0120</t>
+  </si>
+  <si>
+    <t>B274</t>
+  </si>
+  <si>
+    <t>EWA-0121</t>
+  </si>
+  <si>
+    <t>B29E</t>
+  </si>
+  <si>
+    <t>EWA-0122</t>
+  </si>
+  <si>
+    <t>B1BD</t>
+  </si>
+  <si>
+    <t>EWA-0123</t>
   </si>
 </sst>
 </file>
@@ -408,21 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23729C53-FF4E-4BE2-B377-70CBDDF639E1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,11 +570,190 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Web/Content/example/CarBindExample.xlsx
+++ b/Web/Content/example/CarBindExample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceCode\DotNet\999\iRentV20API\Web\Content\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi2.0\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79ED3C-E8C0-4D95-8CAD-C5F1601BB19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840" xr2:uid="{EC66C709-2FC7-49CC-900B-4A11317C3F73}"/>
+    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>車機編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,150 +45,12 @@
   </si>
   <si>
     <t>8400001A8B806401</t>
-  </si>
-  <si>
-    <t>1FA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9583  </t>
-  </si>
-  <si>
-    <t>4C00001B6FDD4101</t>
-  </si>
-  <si>
-    <t>1FAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9587  </t>
-  </si>
-  <si>
-    <t>4200001A8BE6EC01</t>
-  </si>
-  <si>
-    <t>1FB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9592  </t>
-  </si>
-  <si>
-    <t>EB00001A8C289D01</t>
-  </si>
-  <si>
-    <t>1FAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9593  </t>
-  </si>
-  <si>
-    <t>7C00001A8C1EC501</t>
-  </si>
-  <si>
-    <t>1FB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9600  </t>
-  </si>
-  <si>
-    <t>5600001A8C20AF01</t>
-  </si>
-  <si>
-    <t>1FB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9601  </t>
-  </si>
-  <si>
-    <t>F600001A8B964B01</t>
-  </si>
-  <si>
-    <t>1FAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9603  </t>
-  </si>
-  <si>
-    <t>5600001A8C9CAD01</t>
-  </si>
-  <si>
-    <t>1FF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9605  </t>
-  </si>
-  <si>
-    <t>4E00001A8B8A3701</t>
-  </si>
-  <si>
-    <t>1FA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9606  </t>
-  </si>
-  <si>
-    <t>BD00001A8B875301</t>
-  </si>
-  <si>
-    <t>1FAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9607  </t>
-  </si>
-  <si>
-    <t>3E00001A8B9B4401</t>
-  </si>
-  <si>
-    <t>B1B5</t>
-  </si>
-  <si>
-    <t>EWA-0116</t>
-  </si>
-  <si>
-    <t>B14F</t>
-  </si>
-  <si>
-    <t>EWA-0117</t>
-  </si>
-  <si>
-    <t>B17F</t>
-  </si>
-  <si>
-    <t>EWA-0118</t>
-  </si>
-  <si>
-    <t>B1C2</t>
-  </si>
-  <si>
-    <t>EWA-0119</t>
-  </si>
-  <si>
-    <t>B174</t>
-  </si>
-  <si>
-    <t>EWA-0120</t>
-  </si>
-  <si>
-    <t>B274</t>
-  </si>
-  <si>
-    <t>EWA-0121</t>
-  </si>
-  <si>
-    <t>B29E</t>
-  </si>
-  <si>
-    <t>EWA-0122</t>
-  </si>
-  <si>
-    <t>B1BD</t>
-  </si>
-  <si>
-    <t>EWA-0123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -546,21 +407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23729C53-FF4E-4BE2-B377-70CBDDF639E1}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -580,180 +441,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Web/Content/example/CarBindExample.xlsx
+++ b/Web/Content/example/CarBindExample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi2.0\Web\Content\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GordonDocE\SS_DEVELOPER\irentapi2.0\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84908170-A06D-43FD-AA2A-D01F0B6D4C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>車機編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,19 +39,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1FB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAF-9582  </t>
-  </si>
-  <si>
     <t>8400001A8B806401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1FB5  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAF-9582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門號(遠傳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡號(遠傳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -90,8 +101,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,45 +421,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>